--- a/3.results/model_selection/mouette_melanocephale_HR_5_test_integration.xlsx
+++ b/3.results/model_selection/mouette_melanocephale_HR_5_test_integration.xlsx
@@ -6,18 +6,60 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="beta_values" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="WAIC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="perf" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="beta_values" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">dataset</t>
+  </si>
   <si>
     <t xml:space="preserve">model</t>
   </si>
   <si>
+    <t xml:space="preserve">pavlue_CS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavlue_CS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavlue_FT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavlue_FT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV_deviance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">migralion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samm_migralion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnm_migralion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samm_pnm_migralion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samm_pnm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samm</t>
+  </si>
+  <si>
     <t xml:space="preserve">beta_mean_CHL</t>
   </si>
   <si>
@@ -40,33 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">sd_beta_mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pnm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">migralion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samm_pnm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samm_migralion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pnm_migralion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samm_pnm_migralion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dataset</t>
   </si>
 </sst>
 </file>
@@ -109,7 +124,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -423,214 +451,344 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.01</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.48</v>
+        <v>0.69</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.36</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="F2" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="G2" t="n">
-        <v>0.28</v>
+        <v>373</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.49</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.71</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.17</v>
+        <v>0.49</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.77</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F3" t="n">
-        <v>1.49</v>
+        <v>0.49</v>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>393</v>
       </c>
       <c r="H3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.43</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.06</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.85</v>
+        <v>0.67</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.31</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.62</v>
+        <v>374</v>
       </c>
       <c r="H4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.96</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.25</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.51</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1.03</v>
+        <v>0.63</v>
       </c>
       <c r="F5" t="n">
-        <v>0.77</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.43</v>
+        <v>394</v>
       </c>
       <c r="H5" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.67</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.46</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.87</v>
+        <v>0.43</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.37</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.46</v>
+        <v>0.36</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="G6" t="n">
-        <v>0.55</v>
+        <v>148</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.78</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.71</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.75</v>
+        <v>0.48</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.32</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01</v>
+        <v>0.52</v>
       </c>
       <c r="F7" t="n">
-        <v>0.96</v>
+        <v>0.52</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>150</v>
       </c>
       <c r="H7" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.17</v>
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.77</v>
+        <v>0.4</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.49</v>
+        <v>0.51</v>
       </c>
       <c r="E8" t="n">
-        <v>1.43</v>
+        <v>0.27</v>
       </c>
       <c r="F8" t="n">
-        <v>0.96</v>
+        <v>0.51</v>
       </c>
       <c r="G8" t="n">
-        <v>0.53</v>
+        <v>149</v>
       </c>
       <c r="H8" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.77</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G9" t="n">
+        <v>148</v>
+      </c>
+      <c r="H9" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>607</v>
+      </c>
+      <c r="H10" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G11" t="n">
+        <v>611</v>
+      </c>
+      <c r="H11" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>632</v>
+      </c>
+      <c r="H12" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>631</v>
+      </c>
+      <c r="H13" t="n">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -646,145 +804,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>373</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.31</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3.31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>393.2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>393.9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>149.4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>607.2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>611</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>632.1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>631.4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
+      <c r="B8" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2.49</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
